--- a/src/main/java/org/example/ShujuData/Master.xlsx
+++ b/src/main/java/org/example/ShujuData/Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17568" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="17568" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>管理员名称</t>
   </si>
@@ -28,85 +28,211 @@
     <t>admin</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>xiaobai</t>
+  </si>
+  <si>
+    <t>@SYC123xiaobai</t>
+  </si>
+  <si>
+    <t>小黑</t>
+  </si>
+  <si>
+    <t>@SPGL1234system</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户姓名</t>
+  </si>
+  <si>
+    <t>用户级别</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>累计消费金额</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>Z80221</t>
+  </si>
+  <si>
+    <t>铜牌客户</t>
+  </si>
+  <si>
+    <t>2023-08-18 15:55:37</t>
+  </si>
+  <si>
+    <t>1234554321@qq.com</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>生产厂家</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>进货价</t>
+  </si>
+  <si>
+    <t>零售价格</t>
+  </si>
+  <si>
+    <t>库存数量</t>
+  </si>
+  <si>
+    <t>Z20232</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Z20236</t>
+  </si>
+  <si>
+    <t>手机3</t>
+  </si>
+  <si>
+    <t>Z2018</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>200000.0</t>
+  </si>
+  <si>
+    <t>金牌客户</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>20000.0</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>W14634</t>
+  </si>
+  <si>
+    <t>2023-08-19 01:23:34</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>ynuinfo#777</t>
   </si>
   <si>
-    <t>用户名称</t>
-  </si>
-  <si>
-    <t>用户密码</t>
-  </si>
-  <si>
-    <t>xiaobai</t>
-  </si>
-  <si>
-    <t>@SYC123xiaobai</t>
-  </si>
-  <si>
-    <t>小黑</t>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>@SYC1234xiaohei</t>
   </si>
   <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>用户姓名</t>
-  </si>
-  <si>
-    <t>用户级别</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>累计消费金额</t>
-  </si>
-  <si>
-    <t>电话号码</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>Z80221</t>
-  </si>
-  <si>
-    <t>铜牌客户</t>
-  </si>
-  <si>
-    <t>2023-08-18 15:55:37</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1234554321@qq.com</t>
-  </si>
-  <si>
-    <t>商品编号</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>生产厂家</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>进货价</t>
-  </si>
-  <si>
-    <t>零售价格</t>
-  </si>
-  <si>
-    <t>库存数量</t>
+    <t>Bx*0mFMn8v</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>@SYC1234xiaobai</t>
+  </si>
+  <si>
+    <t>B01637</t>
+  </si>
+  <si>
+    <t>2023-08-19 01:59:12</t>
+  </si>
+  <si>
+    <t>13874529870</t>
+  </si>
+  <si>
+    <t>123321</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>xiao</t>
+  </si>
+  <si>
+    <t>@SYC1234xiao</t>
+  </si>
+  <si>
+    <t>D53419</t>
+  </si>
+  <si>
+    <t>2023-08-19 02:00:39</t>
   </si>
 </sst>
 </file>
@@ -722,8 +848,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1059,8 +1188,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.8888888888889" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1076,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1088,15 +1217,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.6666666666667" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1120,7 +1249,31 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1132,42 +1285,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="19.7777777777778" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.66666666666667" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="9.66666666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1111111111111" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.8888888888889" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.7777777777778" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1185,18 +1338,65 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>12345678901</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="1234554321@qq.com"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1206,48 +1406,126 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="13.4444444444444" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.1111111111111" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.4444444444444" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.8888888888889" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6666666666667" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.2222222222222" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.3333333333333" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.4444444444444" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45086</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1200</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45086</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1200</v>
+      </c>
+      <c r="G3">
+        <v>1500</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/example/ShujuData/Master.xlsx
+++ b/src/main/java/org/example/ShujuData/Master.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>管理员名称</t>
   </si>
